--- a/Bit Geeks - Project/Gone_sin_Mal-normalized.xlsx
+++ b/Bit Geeks - Project/Gone_sin_Mal-normalized.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evil Genius\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UOG\Group Project\Bit-Geek-Project-Documents-\Bit Geeks - Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="28800" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1NF (Unique columns)" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="95">
   <si>
     <t>Rest_Coin</t>
   </si>
@@ -302,6 +302,15 @@
   </si>
   <si>
     <t>User Table</t>
+  </si>
+  <si>
+    <t>Rest_profile_picture</t>
+  </si>
+  <si>
+    <t>Noti_id</t>
+  </si>
+  <si>
+    <t>img(blob)</t>
   </si>
 </sst>
 </file>
@@ -815,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AQ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ4" sqref="AJ4"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AK3" sqref="AK3:AK5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,16 +971,19 @@
         <v>10</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
@@ -1089,6 +1101,9 @@
       <c r="AJ4" t="s">
         <v>78</v>
       </c>
+      <c r="AK4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1198,6 +1213,9 @@
       </c>
       <c r="AJ5" t="s">
         <v>79</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
@@ -1218,7 +1236,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AB4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1339,6 +1359,9 @@
       <c r="AA2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="AB2" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1422,6 +1445,9 @@
       <c r="AA3">
         <v>2000</v>
       </c>
+      <c r="AB3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1504,6 +1530,9 @@
       </c>
       <c r="AA4">
         <v>2000</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>94</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
@@ -1675,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD44"/>
+  <dimension ref="A1:AE44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,14 +1723,14 @@
     <col min="9" max="9" width="20.85546875" customWidth="1"/>
     <col min="10" max="10" width="21.28515625" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" customWidth="1"/>
+    <col min="12" max="13" width="19.85546875" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="20" t="s">
         <v>91</v>
       </c>
@@ -1712,7 +1741,7 @@
       <c r="G2" s="21"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>64</v>
       </c>
@@ -1734,10 +1763,10 @@
       <c r="H3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="Y3" s="4"/>
-      <c r="AD3" s="5"/>
-    </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Z3" s="4"/>
+      <c r="AE3" s="5"/>
+    </row>
+    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>86</v>
       </c>
@@ -1760,7 +1789,7 @@
         <v>43436</v>
       </c>
     </row>
-    <row r="5" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
         <v>86</v>
       </c>
@@ -1783,8 +1812,8 @@
         <v>43436</v>
       </c>
     </row>
-    <row r="7" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
         <v>58</v>
       </c>
@@ -1802,9 +1831,10 @@
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
-      <c r="Q8" s="22"/>
-    </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Q8" s="21"/>
+      <c r="R8" s="22"/>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>57</v>
       </c>
@@ -1838,23 +1868,26 @@
       <c r="L9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="O9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="P9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="Q9" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="R9" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
@@ -1888,23 +1921,26 @@
       <c r="L10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="O10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="P10" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="P10" s="12">
+      <c r="Q10" s="12">
         <v>1212324.355</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="R10" s="23">
         <v>34534.345345000002</v>
       </c>
     </row>
-    <row r="11" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
         <v>19</v>
       </c>
@@ -1939,23 +1975,26 @@
         <v>35</v>
       </c>
       <c r="M11" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="O11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="15" t="s">
+      <c r="P11" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="15">
+      <c r="Q11" s="15">
         <v>324232.23423399997</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="R11" s="24">
         <v>345.34534500000001</v>
       </c>
     </row>
-    <row r="14" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="s">
         <v>59</v>
       </c>
@@ -1964,7 +2003,7 @@
       <c r="E15" s="21"/>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>84</v>
       </c>
@@ -2103,23 +2142,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B34" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="19"/>
-      <c r="Y34" s="4"/>
-    </row>
-    <row r="35" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z34" s="4"/>
+    </row>
+    <row r="35" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="28" t="s">
         <v>87</v>
       </c>
       <c r="C35" s="29"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>50</v>
       </c>
@@ -2130,7 +2169,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
         <v>19</v>
       </c>
@@ -2141,7 +2180,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
         <v>19</v>
       </c>
@@ -2152,10 +2191,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="20" t="s">
         <v>51</v>
@@ -2165,7 +2204,7 @@
       <c r="E41" s="21"/>
       <c r="F41" s="22"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="8" t="s">
         <v>52</v>
@@ -2183,7 +2222,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="11" t="s">
         <v>53</v>
@@ -2201,7 +2240,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>54</v>
       </c>
